--- a/doc/YLT_路径配置和进度.xlsx
+++ b/doc/YLT_路径配置和进度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,10 @@
   </si>
   <si>
     <t>后端记录每个货场的经纬度，前台使用百度地图进行显示。地图需要继续搞起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地开发接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +554,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -564,12 +574,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -911,34 +928,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -956,9 +974,12 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -975,8 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:7">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1023,8 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:7">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1036,8 +1053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:7">
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1052,8 +1068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:7">
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1068,58 +1083,61 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="10">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="10">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="10">
+        <v>100</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2"/>
@@ -1136,8 +1154,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2"/>
@@ -1149,8 +1167,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1167,8 +1185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:7">
       <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +1201,6 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1234,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1263,7 +1279,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1308,7 +1324,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1367,7 +1383,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1455,7 +1471,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1469,7 +1485,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="2" t="s">

--- a/doc/YLT_路径配置和进度.xlsx
+++ b/doc/YLT_路径配置和进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="25600" windowHeight="19160" tabRatio="500"/>
+    <workbookView xWindow="13420" yWindow="1900" windowWidth="36980" windowHeight="22240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,9 +571,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -577,16 +580,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -930,13 +946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
@@ -946,17 +962,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -974,12 +990,12 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1054,7 +1070,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1069,7 +1085,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1084,60 +1100,60 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10">
-        <v>100</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10">
-        <v>100</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="7">
+        <v>100</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2"/>
@@ -1155,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2"/>
@@ -1168,10 +1184,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1186,7 +1202,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1200,8 +1216,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1215,8 +1231,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="2"/>
@@ -1233,8 +1249,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1250,8 +1266,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:7">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1264,8 +1280,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:7">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1278,8 +1294,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1295,8 +1311,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1309,8 +1325,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1323,67 +1339,78 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="1" t="s">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="2">
-        <v>100</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="D26" s="11">
+        <v>100</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="2" t="s">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="2">
-        <v>100</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="11">
+        <v>100</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="B28" s="1" t="s">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="2">
-        <v>100</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D28" s="11">
+        <v>100</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="7" t="s">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1402,7 +1429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:7" ht="30">
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1419,7 +1446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1436,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60">
+    <row r="32" spans="1:7" ht="60">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1453,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
@@ -1470,8 +1497,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1484,176 +1511,211 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="D35" s="11">
+        <v>100</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="1" t="s">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="2">
-        <v>100</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="D36" s="11">
+        <v>100</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="2" t="s">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="2">
-        <v>100</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="D37" s="11">
+        <v>100</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="1" t="s">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="2">
-        <v>100</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="D38" s="11">
+        <v>100</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="2" t="s">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="2">
-        <v>100</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="D39" s="11">
+        <v>100</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="1" t="s">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="2">
-        <v>100</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="D40" s="11">
+        <v>100</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="2" t="s">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="2">
-        <v>100</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="11">
+        <v>100</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="6" t="s">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11"/>
+      <c r="B42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="2">
-        <v>100</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="D42" s="11">
+        <v>100</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="2" t="s">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="2">
-        <v>100</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="D43" s="11">
+        <v>100</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="1" t="s">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="2">
-        <v>100</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="D44" s="11">
+        <v>100</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="2" t="s">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="2">
-        <v>100</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="D45" s="11">
+        <v>100</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="1" t="s">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="2">
-        <v>100</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="D46" s="11">
+        <v>100</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="G46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/YLT_路径配置和进度.xlsx
+++ b/doc/YLT_路径配置和进度.xlsx
@@ -463,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,6 +508,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -560,7 +568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,12 +592,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -602,6 +604,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -946,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -962,14 +973,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
@@ -1184,7 +1195,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1250,7 +1261,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1340,74 +1351,74 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="11">
-        <v>100</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="9">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11">
-        <v>100</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11" t="s">
+      <c r="D26" s="9">
+        <v>100</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="11">
-        <v>100</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11" t="s">
+      <c r="D27" s="9">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="11">
-        <v>100</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11" t="s">
+      <c r="D28" s="9">
+        <v>100</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="6" t="s">
@@ -1512,210 +1523,210 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="11">
-        <v>100</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14" t="s">
+      <c r="D35" s="9">
+        <v>100</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="11">
-        <v>100</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="14" t="s">
+      <c r="D36" s="9">
+        <v>100</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="13"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="11">
-        <v>100</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14" t="s">
+      <c r="D37" s="9">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="11">
-        <v>100</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="14" t="s">
+      <c r="D38" s="9">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="11">
-        <v>100</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14" t="s">
+      <c r="D39" s="9">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="11">
-        <v>100</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="14" t="s">
+      <c r="D40" s="9">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="11">
-        <v>100</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14" t="s">
+      <c r="D41" s="9">
+        <v>100</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="11">
-        <v>100</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="14" t="s">
+      <c r="D42" s="9">
+        <v>100</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="11">
-        <v>100</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="14" t="s">
+      <c r="D43" s="9">
+        <v>100</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="11">
-        <v>100</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="14" t="s">
+      <c r="D44" s="9">
+        <v>100</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="13"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="11">
-        <v>100</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14" t="s">
+      <c r="D45" s="9">
+        <v>100</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="13"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="11">
-        <v>100</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="14" t="s">
+      <c r="D46" s="9">
+        <v>100</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="13"/>
+      <c r="G46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/YLT_路径配置和进度.xlsx
+++ b/doc/YLT_路径配置和进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="1900" windowWidth="36980" windowHeight="22240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,26 @@
   </si>
   <si>
     <t>本地开发接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,9 +607,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,6 +636,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -957,13 +993,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
@@ -973,17 +1009,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1001,12 +1037,12 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1111,60 +1147,64 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="6">
+        <v>100</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="6">
+        <v>100</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7">
-        <v>100</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="6">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="2"/>
@@ -1182,7 +1222,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2"/>
@@ -1195,7 +1235,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1261,7 +1301,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1306,122 +1346,134 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="16">
+        <v>100</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="G22" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="2">
-        <v>100</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="16">
+        <v>100</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="16">
+        <v>100</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
         <v>35</v>
       </c>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="9">
-        <v>100</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="8">
+        <v>100</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="9">
-        <v>100</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="8">
+        <v>100</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="9">
-        <v>100</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="8">
+        <v>100</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="9">
-        <v>100</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
+      <c r="D28" s="8">
+        <v>100</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1509,7 +1561,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1523,210 +1575,212 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="9">
-        <v>100</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="12" t="s">
+      <c r="D35" s="8">
+        <v>100</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="9">
-        <v>100</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="12" t="s">
+      <c r="D36" s="8">
+        <v>100</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="9">
-        <v>100</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12" t="s">
+      <c r="D37" s="8">
+        <v>100</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="9">
-        <v>100</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="12" t="s">
+      <c r="D38" s="8">
+        <v>100</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="9">
-        <v>100</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="12" t="s">
+      <c r="D39" s="8">
+        <v>100</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="9">
-        <v>100</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="12" t="s">
+      <c r="D40" s="8">
+        <v>100</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="9">
-        <v>100</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="12" t="s">
+      <c r="D41" s="8">
+        <v>100</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="9">
-        <v>100</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="12" t="s">
+      <c r="D42" s="8">
+        <v>100</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="9">
-        <v>100</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="12" t="s">
+      <c r="D43" s="8">
+        <v>100</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="9">
-        <v>100</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="12" t="s">
+      <c r="D44" s="8">
+        <v>100</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="9">
-        <v>100</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="12" t="s">
+      <c r="D45" s="8">
+        <v>100</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="9">
-        <v>100</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="12" t="s">
+      <c r="D46" s="8">
+        <v>100</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="11"/>
+      <c r="G46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/YLT_路径配置和进度.xlsx
+++ b/doc/YLT_路径配置和进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -628,12 +628,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -649,6 +643,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1009,14 +1009,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1301,7 +1301,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1346,59 +1346,59 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="16">
-        <v>100</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16" t="s">
+      <c r="D22" s="14">
+        <v>100</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="16">
-        <v>100</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="14">
+        <v>100</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="16">
-        <v>100</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16" t="s">
+      <c r="D24" s="14">
+        <v>100</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
